--- a/src/test/java/Orders/Data/OrderData.xlsx
+++ b/src/test/java/Orders/Data/OrderData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajmal.syed.LOGICIELSERVICE\eclipse-workspace\OMS_API\src\test\java\Orders\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation_OMSAPI\src\test\java\Orders\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88274BD8-1BF9-429D-855D-74443886966B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7299DF-397B-48F5-A18C-E96973FD1AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="447" xr2:uid="{A77A0332-03F7-4C79-B0EA-4DB171BB1F0C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="357" xr2:uid="{A77A0332-03F7-4C79-B0EA-4DB171BB1F0C}"/>
   </bookViews>
   <sheets>
     <sheet name="CreateActiveEquityOrder" sheetId="9" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="88">
   <si>
     <t>Content_Type</t>
   </si>
@@ -428,6 +428,45 @@
   </si>
   <si>
     <t>Verify_Equity_Order_Active_Creation_TC0001</t>
+  </si>
+  <si>
+    <t>{
+    "ordType": "2",
+    "side": "2",
+    "timeInForce": "0",
+    "destination": "D0",
+    "account": "10005",
+    "orderQty": 223,
+    "symbol": "BF.B",
+    "Price": 40,
+    "StopPx": 0
+ }</t>
+  </si>
+  <si>
+    <t>{
+    "ordType": "2",
+    "side": "1",
+    "timeInForce": "0",
+    "destination": "D0",
+    "account": "10005",
+    "orderQty": 224,
+    "symbol": "BF.B",
+    "Price": 41,
+    "StopPx": 0
+ }</t>
+  </si>
+  <si>
+    <t>{
+    "ordType": "1",
+    "side": "2",
+    "timeInForce": "0",
+    "destination": "D0",
+    "account": "10005",
+    "orderQty": 225,
+    "symbol": "BF.B",
+    "Price": 0,
+    "StopPx": 0
+ }</t>
   </si>
 </sst>
 </file>
@@ -849,10 +888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F97819-0497-470B-932D-7124C01F5F73}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,6 +947,75 @@
         <v>200</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="4">
+        <v>200</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="4">
+        <v>200</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="4">
+        <v>200</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>49</v>
       </c>
     </row>

--- a/src/test/java/Orders/Data/OrderData.xlsx
+++ b/src/test/java/Orders/Data/OrderData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation_OMSAPI\src\test\java\Orders\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7299DF-397B-48F5-A18C-E96973FD1AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D52EF0-E605-4393-B988-1D8AE808AE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="357" xr2:uid="{A77A0332-03F7-4C79-B0EA-4DB171BB1F0C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="357" activeTab="1" xr2:uid="{A77A0332-03F7-4C79-B0EA-4DB171BB1F0C}"/>
   </bookViews>
   <sheets>
     <sheet name="CreateActiveEquityOrder" sheetId="9" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="147">
   <si>
     <t>Content_Type</t>
   </si>
@@ -375,58 +375,6 @@
     <t>Verify_Equity_Order_Rejected_Creation_TC0005</t>
   </si>
   <si>
-    <t>{
-    "ordType": "2",
-    "side": "2",
-    "timeInForce": "0",
-    "destination": "D0",
-    "account": "10005",
-    "orderQty": 334,
-    "symbol": "BF.B",
-    "Price": 61,
-    "StopPx": 0
- }</t>
-  </si>
-  <si>
-    <t>{
-    "ordType": "2",
-    "side": "1",
-    "timeInForce": "0",
-    "destination": "D0",
-    "account": "10005",
-    "orderQty": 337,
-    "symbol": "BF.B",
-    "Price": 62,
-    "StopPx": 0
- }</t>
-  </si>
-  <si>
-    <t>{
-    "ordType": "1",
-    "side": "1",
-    "timeInForce": "0",
-    "destination": "D0",
-    "account": "10005",
-    "orderQty": 336,
-    "symbol": "BF.B",
-    "Price":0 ,
-    "StopPx": 0
- }</t>
-  </si>
-  <si>
-    <t>{
-    "ordType": "1",
-    "side": "2",
-    "timeInForce": "0",
-    "destination": "D0",
-    "account": "10005",
-    "orderQty": 335,
-    "symbol": "BF.B",
-    "Price": 0,
-    "StopPx": 0
- }</t>
-  </si>
-  <si>
     <t>Verify_Equity_Order_Active_Creation_TC0001</t>
   </si>
   <si>
@@ -466,6 +414,515 @@
     "symbol": "BF.B",
     "Price": 0,
     "StopPx": 0
+ }</t>
+  </si>
+  <si>
+    <t>Verify_Equity_Order_Active_Creation_TC0002</t>
+  </si>
+  <si>
+    <t>Verify_Equity_Order_Active_Creation_TC0003</t>
+  </si>
+  <si>
+    <t>Verify_Equity_Order_Active_Creation_TC0004</t>
+  </si>
+  <si>
+    <t>{
+    "ordType": "1",
+    "side": "2",
+    "timeInForce": "0",
+    "destination": "D0",
+    "account": "10005",
+    "orderQty": 226,
+    "symbol": "A",
+    "Price": 0,
+    "StopPx": 0
+ }</t>
+  </si>
+  <si>
+    <t>Verify_BUY_Equity_Order_Filled_Creation_TC0002</t>
+  </si>
+  <si>
+    <t>Verify_BUY_Equity_Order_Filled_Creation_TC0003</t>
+  </si>
+  <si>
+    <t>Verify_BUY_Equity_Order_Filled_Creation_TC0004</t>
+  </si>
+  <si>
+    <t>Verify_BUY_Equity_Order_Filled_Creation_TC0005</t>
+  </si>
+  <si>
+    <t>Verify_SELL_Equity_Order_Filled_Creation_TC0002</t>
+  </si>
+  <si>
+    <t>Verify_SELL_Equity_Order_Filled_Creation_TC0003</t>
+  </si>
+  <si>
+    <t>Verify_SELL_Equity_Order_Filled_Creation_TC0004</t>
+  </si>
+  <si>
+    <t>Verify_SELL_Equity_Order_Filled_Creation_TC0005</t>
+  </si>
+  <si>
+    <t>{
+    "ordType": "2",
+    "side": "1",
+    "timeInForce": "0",
+    "destination": "D0",
+    "account": "10005",
+    "orderQty":15,
+    "symbol": "AA",
+    "Price": 50,
+    "StopPx": 0
+ }</t>
+  </si>
+  <si>
+    <t>{
+    "ordType": "2",
+    "side": "2",
+    "timeInForce": "0",
+    "destination": "D0",
+    "account": "10005",
+    "orderQty":10,
+    "symbol": "AA",
+    "Price": 50,
+    "StopPx": 0
+ }</t>
+  </si>
+  <si>
+    <t>{
+    "ordType": "2",
+    "side": "1",
+    "timeInForce": "0",
+    "destination": "D0",
+    "account": "10005",
+    "orderQty":20,
+    "symbol": "AACG",
+    "Price": 50,
+    "StopPx": 0
+ }</t>
+  </si>
+  <si>
+    <t>{
+    "ordType": "2",
+    "side": "2",
+    "timeInForce": "0",
+    "destination": "D0",
+    "account": "10005",
+    "orderQty":15,
+    "symbol": "AACG",
+    "Price": 50,
+    "StopPx": 0
+ }</t>
+  </si>
+  <si>
+    <t>{
+    "ordType": "2",
+    "side": "1",
+    "timeInForce": "0",
+    "destination": "D0",
+    "account": "10005",
+    "orderQty":10,
+    "symbol": "AACI",
+    "Price": 50,
+    "StopPx": 0
+ }</t>
+  </si>
+  <si>
+    <t>{
+    "ordType": "2",
+    "side": "2",
+    "timeInForce": "0",
+    "destination": "D0",
+    "account": "10005",
+    "orderQty":5,
+    "symbol": "AACI",
+    "Price": 50,
+    "StopPx": 0
+ }</t>
+  </si>
+  <si>
+    <t>{
+    "ordType": "2",
+    "side": "1",
+    "timeInForce": "0",
+    "destination": "D0",
+    "account": "10005",
+    "orderQty":10,
+    "symbol": "AACT",
+    "Price": 50,
+    "StopPx": 0
+ }</t>
+  </si>
+  <si>
+    <t>{
+    "ordType": "2",
+    "side": "2",
+    "timeInForce": "0",
+    "destination": "D0",
+    "account": "10005",
+    "orderQty":5,
+    "symbol": "AACT",
+    "Price": 50,
+    "StopPx": 0
+ }</t>
+  </si>
+  <si>
+    <t>Verify_SHORTSELL_Equity_Order_Filled_Creation_TC0002</t>
+  </si>
+  <si>
+    <t>Verify_SHORTSELL_Equity_Order_Filled_Creation_TC0003</t>
+  </si>
+  <si>
+    <t>Verify_SHORTSELL_Equity_Order_Filled_Creation_TC0004</t>
+  </si>
+  <si>
+    <t>Verify_SHORTSELL_Equity_Order_Filled_Creation_TC0005</t>
+  </si>
+  <si>
+    <t>{
+    "ordType": "2",
+    "side": "5",
+    "timeInForce": "0",
+    "destination": "D0",
+    "account": "10005",
+    "orderQty":10,
+    "symbol": "AA",
+    "Price": 70,
+    "StopPx": 0
+ }</t>
+  </si>
+  <si>
+    <t>{
+    "ordType": "2",
+    "side": "2",
+    "timeInForce": "0",
+    "destination": "D0",
+    "account": "10005",
+    "orderQty": 334,
+    "symbol": "A",
+    "Price": 61,
+    "StopPx": 0
+ }</t>
+  </si>
+  <si>
+    <t>{
+    "ordType": "1",
+    "side": "2",
+    "timeInForce": "0",
+    "destination": "D0",
+    "account": "10005",
+    "orderQty": 335,
+    "symbol": "AA",
+    "Price": 0,
+    "StopPx": 0
+ }</t>
+  </si>
+  <si>
+    <t>Verify_Cancel_Equity_Order_TC0002</t>
+  </si>
+  <si>
+    <t>Verify_Cancel_Equity_Order_TC0003</t>
+  </si>
+  <si>
+    <t>Verify_Cancel_Equity_Order_TC0004</t>
+  </si>
+  <si>
+    <t>{
+    "ordType": "2",
+    "side": "2",
+    "timeInForce": "0",
+    "destination": "D0",
+    "account": "10005",
+    "orderQty": 445,
+    "symbol": "A",
+    "Price": 80,
+    "StopPx": 0
+ }</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>AACG</t>
+  </si>
+  <si>
+    <t>Verify_Delete_Equity_Order_TC0002</t>
+  </si>
+  <si>
+    <t>Verify_Delete_Equity_Order_TC0003</t>
+  </si>
+  <si>
+    <t>Verify_Delete_Equity_Order_TC0004</t>
+  </si>
+  <si>
+    <t>Verify_Delete_Equity_Order_TC0005</t>
+  </si>
+  <si>
+    <t>AACI</t>
+  </si>
+  <si>
+    <t>{
+    "ordType": "2",
+    "side": "2",
+    "timeInForce": "0",
+    "destination": "D0",
+    "account": "10005",
+    "orderQty": 55,
+    "symbol": "A",
+    "Price": 75,
+    "StopPx": 0
+ }</t>
+  </si>
+  <si>
+    <t>{
+    "ordType": "2",
+    "side": "2",
+    "timeInForce": "0",
+    "destination": "D0",
+    "account": "10005",
+    "orderQty": 55,
+    "symbol": "AA",
+    "Price": 75,
+    "StopPx": 0
+ }</t>
+  </si>
+  <si>
+    <t>{
+    "ordType": "1",
+    "side": "5",
+    "timeInForce": "0",
+    "destination": "D0",
+    "account": "10005",
+    "orderQty": 336,
+    "symbol": "AACI",
+    "Price":0 ,
+    "StopPx": 0
+ }</t>
+  </si>
+  <si>
+    <t>{
+    "ordType": "2",
+    "side": "5",
+    "timeInForce": "0",
+    "destination": "D0",
+    "account": "10005",
+    "orderQty": 337,
+    "symbol": "AACT",
+    "Price": 62,
+    "StopPx": 0
+ }</t>
+  </si>
+  <si>
+    <t>{
+    "ordType": "2",
+    "side": "5",
+    "timeInForce": "0",
+    "destination": "D0",
+    "account": "10005",
+    "orderQty": 446,
+    "symbol": "AA",
+    "Price": 80,
+    "StopPx": 0
+ }</t>
+  </si>
+  <si>
+    <t>{
+    "ordType": "2",
+    "side": "5",
+    "timeInForce": "0",
+    "destination": "D0",
+    "account": "10005",
+    "orderQty": 447,
+    "symbol": "AACG",
+    "Price": 80,
+    "StopPx": 0
+ }</t>
+  </si>
+  <si>
+    <t>{
+    "ordType": "2",
+    "side": "5",
+    "timeInForce": "0",
+    "destination": "D0",
+    "account": "10005",
+    "orderQty": 55,
+    "symbol": "AACI",
+    "Price": 75,
+    "StopPx": 0
+ }</t>
+  </si>
+  <si>
+    <t>{
+    "ordType": "2",
+    "side": "5",
+    "timeInForce": "0",
+    "destination": "D0",
+    "account": "10005",
+    "orderQty": 55,
+    "symbol": "AACG",
+    "Price": 75,
+    "StopPx": 0
+ }</t>
+  </si>
+  <si>
+    <t>Verify_Update_Equity_Order_TC0002</t>
+  </si>
+  <si>
+    <t>Verify_Update_Equity_Order_TC0003</t>
+  </si>
+  <si>
+    <t>Verify_Update_Equity_Order_TC0004</t>
+  </si>
+  <si>
+    <t>Verify_Update_Equity_Order_TC0005</t>
+  </si>
+  <si>
+    <t>{
+    "ordType": "2",
+    "side": "1",
+    "timeInForce": "0",
+    "destination": "D0",
+    "account": "10005",
+    "orderQty": 10,
+    "symbol": "AA",
+    "Price": 80,
+    "StopPx": 0
+ }</t>
+  </si>
+  <si>
+    <t>{
+    "ordType": "2",
+    "side": "5",
+    "timeInForce": "0",
+    "destination": "D0",
+    "account": "10005",
+    "orderQty": 10,
+    "symbol": "AACI",
+    "Price": 80,
+    "StopPx": 0
+ }</t>
+  </si>
+  <si>
+    <t>{
+    "ordType": "2",
+    "side": "5",
+    "timeInForce": "0",
+    "destination": "D0",
+    "account": "10005",
+    "orderQty": 10,
+    "symbol": "AACG",
+    "Price": 80,
+    "StopPx": 0
+ }</t>
+  </si>
+  <si>
+    <t>{
+    "ordType": "2",
+    "side": "2",
+    "timeInForce": "0",
+    "destination": "D0",
+    "account": "10005",
+    "orderQty": 10,
+    "symbol": "A",
+    "Price": 80,
+    "StopPx": 0
+ }</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>{
+    "ordType": "2",
+    "side": "5",
+    "timeInForce": "0",
+    "destination": "D0",
+    "account": "10005",
+    "orderQty":10,
+    "symbol": "MSFT",
+    "Price": 70,
+    "StopPx": 0
+ }</t>
+  </si>
+  <si>
+    <t>{
+    "ordType": "1",
+    "side": "5",
+    "timeInForce": "0",
+    "destination": "D0",
+    "account": "10005",
+    "orderQty":30,
+    "symbol": "A",
+    "Price": 0,
+    "StopPx": 0
+ }</t>
+  </si>
+  <si>
+    <t>{
+    "ordType": "1",
+    "side": "5",
+    "timeInForce": "0",
+    "destination": "D0",
+    "account": "10005",
+    "orderQty":20,
+    "symbol": "A",
+    "Price": 0,
+    "StopPx": 0
+ }</t>
+  </si>
+  <si>
+    <t>{
+    "ordType": "2",
+    "side": "1",
+    "timeInForce": "0",
+    "destination": "D0",
+    "account": "10005",
+    "orderQty":200,
+    "symbol": "BF.B",
+    "Price": 1.05,
+    "StopPx": 0
+ }</t>
+  </si>
+  <si>
+    <t>{
+    "ordType": "1",
+    "side": "1",
+    "timeInForce": "0",
+    "destination": "D0",
+    "account": "10005",
+    "orderQty":200,
+    "symbol": "BF.B",
+    "Price": 0,
+    "StopPx": 0
+ }</t>
+  </si>
+  <si>
+    <t>{
+    "ordType": "4",
+    "side": "1",
+    "timeInForce": "0",
+    "destination": "D0",
+    "account": "10005",
+    "orderQty":200,
+    "symbol": "BF.B",
+    "Price": 1.05,
+    "StopPx": 2.05
+ }</t>
+  </si>
+  <si>
+    <t>{
+    "ordType": "3",
+    "side": "1",
+    "timeInForce": "0",
+    "destination": "D0",
+    "account": "10005",
+    "orderQty":200,
+    "symbol": "BF.B",
+    "Price": 0,
+    "StopPx": 2.05
  }</t>
   </si>
 </sst>
@@ -476,7 +933,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -507,6 +964,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -547,7 +1012,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -573,6 +1038,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -888,10 +1356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F97819-0497-470B-932D-7124C01F5F73}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,7 +1397,7 @@
     </row>
     <row r="2" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
         <v>69</v>
@@ -964,7 +1432,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F3" s="4">
         <v>200</v>
@@ -975,7 +1443,7 @@
     </row>
     <row r="4" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
         <v>69</v>
@@ -987,7 +1455,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F4" s="4">
         <v>200</v>
@@ -998,7 +1466,7 @@
     </row>
     <row r="5" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
         <v>69</v>
@@ -1010,12 +1478,35 @@
         <v>1</v>
       </c>
       <c r="E5" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="4">
+        <v>200</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F5" s="4">
-        <v>200</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="F6" s="4">
+        <v>200</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1028,10 +1519,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7D56E2-D9E9-47B4-91F3-26434E16CD4C}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,7 +1559,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -1081,7 +1572,7 @@
       <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="8" t="s">
         <v>37</v>
       </c>
       <c r="F2" s="4">
@@ -1091,7 +1582,100 @@
         <v>49</v>
       </c>
     </row>
+    <row r="3" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="4">
+        <v>200</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" s="4">
+        <v>200</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" s="4">
+        <v>200</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="4">
+        <v>200</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -1099,10 +1683,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B298EA57-48AF-4FC9-B1FD-DDCAC9E4C821}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C2"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1168,6 +1752,110 @@
         <v>49</v>
       </c>
     </row>
+    <row r="3" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" s="4">
+        <v>200</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="4">
+        <v>200</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="4">
+        <v>200</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="4">
+        <v>200</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1177,10 +1865,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D91A27-2496-47F9-8604-A389204BAEF0}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1240,7 +1928,100 @@
         <v>49</v>
       </c>
     </row>
+    <row r="3" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="4">
+        <v>200</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="4">
+        <v>200</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" s="4">
+        <v>200</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" s="4">
+        <v>200</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -1250,8 +2031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A32427B-BAEF-492A-BD52-8864961117D7}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1311,7 +2092,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -1324,8 +2105,8 @@
       <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>80</v>
+      <c r="E3" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="F3" s="4">
         <v>200</v>
@@ -1348,7 +2129,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="F4" s="4">
         <v>200</v>
@@ -1370,8 +2151,8 @@
       <c r="D5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>82</v>
+      <c r="E5" s="12" t="s">
+        <v>125</v>
       </c>
       <c r="F5" s="4">
         <v>200</v>
@@ -1394,7 +2175,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="F6" s="4">
         <v>200</v>
@@ -1412,16 +2193,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C508530A-1E53-4546-8F24-1690E4F7A839}">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="44.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="4" width="44.85546875" customWidth="1"/>
     <col min="5" max="5" width="157.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="44.85546875" customWidth="1"/>
     <col min="8" max="8" width="49.28515625" bestFit="1" customWidth="1"/>
@@ -1580,6 +2362,219 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:23" ht="165" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3">
+        <v>200</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="7">
+        <v>2</v>
+      </c>
+      <c r="K3" s="7">
+        <v>2</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="10">
+        <v>80</v>
+      </c>
+      <c r="P3" s="10">
+        <v>445</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="4">
+        <v>200</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="T3" s="4">
+        <v>200</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="165" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4">
+        <v>200</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="7">
+        <v>2</v>
+      </c>
+      <c r="K4" s="7">
+        <v>5</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="10">
+        <v>80</v>
+      </c>
+      <c r="P4" s="10">
+        <v>446</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R4" s="4">
+        <v>200</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="T4" s="4">
+        <v>200</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5">
+        <v>200</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="7">
+        <v>2</v>
+      </c>
+      <c r="K5" s="7">
+        <v>5</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="10">
+        <v>80</v>
+      </c>
+      <c r="P5" s="10">
+        <v>447</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R5" s="4">
+        <v>200</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="T5" s="4">
+        <v>200</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1588,10 +2583,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B25BD67F-74B9-4FAF-97B6-C4F67D9C13A7}">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1684,7 +2679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="165" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -1697,7 +2692,7 @@
       <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="11" t="s">
         <v>56</v>
       </c>
       <c r="F2">
@@ -1752,6 +2747,290 @@
         <v>5</v>
       </c>
       <c r="W2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="165" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3">
+        <v>200</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="7">
+        <v>2</v>
+      </c>
+      <c r="K3" s="7">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="10">
+        <v>75</v>
+      </c>
+      <c r="P3" s="10">
+        <v>55</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="4">
+        <v>200</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="T3" s="4">
+        <v>200</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="165" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4">
+        <v>200</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="7">
+        <v>2</v>
+      </c>
+      <c r="K4" s="7">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="10">
+        <v>75</v>
+      </c>
+      <c r="P4" s="10">
+        <v>55</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R4" s="4">
+        <v>200</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="T4" s="4">
+        <v>200</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="165" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5">
+        <v>200</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="7">
+        <v>2</v>
+      </c>
+      <c r="K5" s="7">
+        <v>5</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="10">
+        <v>75</v>
+      </c>
+      <c r="P5" s="10">
+        <v>55</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R5" s="4">
+        <v>200</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="T5" s="4">
+        <v>200</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="165" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6">
+        <v>200</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="7">
+        <v>2</v>
+      </c>
+      <c r="K6" s="7">
+        <v>5</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="10">
+        <v>75</v>
+      </c>
+      <c r="P6" s="10">
+        <v>55</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R6" s="4">
+        <v>200</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="T6" s="4">
+        <v>200</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W6" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1763,10 +3042,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4806CC3-0CA8-4675-9C97-87150AFE3499}">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1943,7 +3222,316 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:25" ht="165" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3">
+        <v>200</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="4">
+        <v>200</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U3" s="3">
+        <v>15</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="W3" s="7">
+        <v>200</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="165" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4">
+        <v>200</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R4" s="4">
+        <v>200</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U4" s="3">
+        <v>15</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="W4" s="7">
+        <v>200</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="165" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5">
+        <v>200</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R5" s="4">
+        <v>200</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U5" s="3">
+        <v>15</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="W5" s="7">
+        <v>200</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="165" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6">
+        <v>200</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R6" s="4">
+        <v>200</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U6" s="3">
+        <v>15</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="W6" s="7">
+        <v>200</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>

--- a/src/test/java/Orders/Data/OrderData.xlsx
+++ b/src/test/java/Orders/Data/OrderData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation_OMSAPI\src\test\java\Orders\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APIAutomation\Automation_OMSAPI\src\test\java\Orders\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D52EF0-E605-4393-B988-1D8AE808AE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D121A43C-954F-4CDA-B2E1-DFA677300883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="357" activeTab="1" xr2:uid="{A77A0332-03F7-4C79-B0EA-4DB171BB1F0C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="357" firstSheet="1" activeTab="2" xr2:uid="{A77A0332-03F7-4C79-B0EA-4DB171BB1F0C}"/>
   </bookViews>
   <sheets>
     <sheet name="CreateActiveEquityOrder" sheetId="9" r:id="rId1"/>
@@ -1012,7 +1012,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1042,6 +1042,10 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1060,9 +1064,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1100,7 +1104,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1206,7 +1210,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1348,7 +1352,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1359,7 +1363,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1373,33 +1377,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="16" t="s">
         <v>69</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1408,7 +1412,7 @@
       <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="3" t="s">
         <v>35</v>
       </c>
       <c r="F2" s="4">
@@ -1418,11 +1422,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="16" t="s">
         <v>69</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1431,7 +1435,7 @@
       <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="3" t="s">
         <v>81</v>
       </c>
       <c r="F3" s="4">
@@ -1441,11 +1445,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="16" t="s">
         <v>69</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1454,7 +1458,7 @@
       <c r="D4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="3" t="s">
         <v>82</v>
       </c>
       <c r="F4" s="4">
@@ -1464,11 +1468,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="16" t="s">
         <v>69</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1477,7 +1481,7 @@
       <c r="D5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="3" t="s">
         <v>83</v>
       </c>
       <c r="F5" s="4">
@@ -1487,11 +1491,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="16" t="s">
         <v>69</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1500,7 +1504,7 @@
       <c r="D6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="3" t="s">
         <v>87</v>
       </c>
       <c r="F6" s="4">
@@ -1521,8 +1525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7D56E2-D9E9-47B4-91F3-26434E16CD4C}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1537,33 +1541,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="16" t="s">
         <v>69</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1572,7 +1576,7 @@
       <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F2" s="4">
@@ -1582,11 +1586,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="16" t="s">
         <v>69</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1595,7 +1599,7 @@
       <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="3" t="s">
         <v>143</v>
       </c>
       <c r="F3" s="4">
@@ -1605,11 +1609,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="16" t="s">
         <v>69</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1618,7 +1622,7 @@
       <c r="D4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="3" t="s">
         <v>145</v>
       </c>
       <c r="F4" s="4">
@@ -1628,11 +1632,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="16" t="s">
         <v>69</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1641,7 +1645,7 @@
       <c r="D5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="3" t="s">
         <v>146</v>
       </c>
       <c r="F5" s="4">
@@ -1651,11 +1655,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="16" t="s">
         <v>69</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1664,7 +1668,7 @@
       <c r="D6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="3" t="s">
         <v>144</v>
       </c>
       <c r="F6" s="4">
@@ -1685,8 +1689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B298EA57-48AF-4FC9-B1FD-DDCAC9E4C821}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
